--- a/FuzzyMsc/App_Data/Tmp/FileUploads/yapay-veriler-2.xlsx
+++ b/FuzzyMsc/App_Data/Tmp/FileUploads/yapay-veriler-2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="REZISTIVITE" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="39">
   <si>
     <t>X</t>
   </si>
@@ -72,12 +72,6 @@
   </si>
   <si>
     <t>VS3(m/s)</t>
-  </si>
-  <si>
-    <t>VP4(m/s)</t>
-  </si>
-  <si>
-    <t>VS4(m/s)</t>
   </si>
   <si>
     <t>T1</t>
@@ -479,8 +473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -523,7 +517,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1">
         <v>83</v>
@@ -533,20 +527,18 @@
         <v>987</v>
       </c>
       <c r="E2" s="1">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="F2" s="1">
         <v>80</v>
       </c>
       <c r="G2" s="1">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="H2" s="1">
         <v>300</v>
       </c>
-      <c r="I2" s="1">
-        <v>40</v>
-      </c>
+      <c r="I2" s="1"/>
       <c r="J2" s="1">
         <v>500</v>
       </c>
@@ -555,7 +547,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B3" s="1">
         <v>195</v>
@@ -565,20 +557,18 @@
         <v>974</v>
       </c>
       <c r="E3" s="1">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F3" s="1">
         <v>70</v>
       </c>
       <c r="G3" s="1">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="H3" s="1">
         <v>250</v>
       </c>
-      <c r="I3" s="1">
-        <v>43</v>
-      </c>
+      <c r="I3" s="1"/>
       <c r="J3" s="1">
         <v>460</v>
       </c>
@@ -587,7 +577,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B4" s="1">
         <v>280</v>
@@ -597,33 +587,31 @@
         <v>956</v>
       </c>
       <c r="E4" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F4" s="1">
         <v>20</v>
       </c>
       <c r="G4" s="1">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="H4" s="1">
         <v>45</v>
       </c>
       <c r="I4" s="1">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="J4" s="1">
         <v>350</v>
       </c>
-      <c r="K4" s="1">
-        <v>46</v>
-      </c>
+      <c r="K4" s="1"/>
       <c r="L4" s="1">
         <v>600</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B5" s="1">
         <v>370</v>
@@ -633,33 +621,31 @@
         <v>952</v>
       </c>
       <c r="E5" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F5" s="1">
         <v>15</v>
       </c>
       <c r="G5" s="1">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="H5" s="1">
         <v>40</v>
       </c>
       <c r="I5" s="1">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="J5" s="1">
         <v>300</v>
       </c>
-      <c r="K5" s="1">
-        <v>50</v>
-      </c>
+      <c r="K5" s="1"/>
       <c r="L5" s="1">
         <v>660</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B6" s="1">
         <v>478</v>
@@ -669,33 +655,31 @@
         <v>938</v>
       </c>
       <c r="E6" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F6" s="1">
         <v>10</v>
       </c>
       <c r="G6" s="1">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="H6" s="1">
         <v>35</v>
       </c>
       <c r="I6" s="1">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="J6" s="1">
         <v>330</v>
       </c>
-      <c r="K6" s="1">
-        <v>46</v>
-      </c>
+      <c r="K6" s="1"/>
       <c r="L6" s="1">
         <v>650</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B7" s="1">
         <v>560</v>
@@ -705,20 +689,18 @@
         <v>915</v>
       </c>
       <c r="E7" s="1">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F7" s="1">
         <v>40</v>
       </c>
       <c r="G7" s="1">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H7" s="1">
         <v>340</v>
       </c>
-      <c r="I7" s="1">
-        <v>30</v>
-      </c>
+      <c r="I7" s="1"/>
       <c r="J7" s="1">
         <v>640</v>
       </c>
@@ -733,15 +715,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P9"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -779,19 +761,10 @@
       <c r="M1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B2" s="1">
         <v>42</v>
@@ -801,7 +774,7 @@
         <v>990</v>
       </c>
       <c r="E2" s="1">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F2" s="1">
         <v>800</v>
@@ -810,7 +783,7 @@
         <v>300</v>
       </c>
       <c r="H2" s="1">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="I2" s="1">
         <v>2000</v>
@@ -818,22 +791,17 @@
       <c r="J2" s="1">
         <v>600</v>
       </c>
-      <c r="K2" s="1">
-        <v>30</v>
-      </c>
+      <c r="K2" s="1"/>
       <c r="L2" s="1">
         <v>3000</v>
       </c>
       <c r="M2" s="1">
         <v>1000</v>
       </c>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B3" s="1">
         <v>149</v>
@@ -843,7 +811,7 @@
         <v>983</v>
       </c>
       <c r="E3" s="1">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F3" s="1">
         <v>900</v>
@@ -852,7 +820,7 @@
         <v>350</v>
       </c>
       <c r="H3" s="1">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="I3" s="1">
         <v>2200</v>
@@ -860,22 +828,17 @@
       <c r="J3" s="1">
         <v>650</v>
       </c>
-      <c r="K3" s="1">
-        <v>39</v>
-      </c>
+      <c r="K3" s="1"/>
       <c r="L3" s="1">
         <v>2800</v>
       </c>
       <c r="M3" s="1">
         <v>1100</v>
       </c>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B4" s="1">
         <v>238</v>
@@ -885,7 +848,7 @@
         <v>964</v>
       </c>
       <c r="E4" s="1">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F4" s="1">
         <v>500</v>
@@ -894,7 +857,7 @@
         <v>200</v>
       </c>
       <c r="H4" s="1">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="I4" s="1">
         <v>900</v>
@@ -902,22 +865,17 @@
       <c r="J4" s="1">
         <v>300</v>
       </c>
-      <c r="K4" s="1">
-        <v>30</v>
-      </c>
+      <c r="K4" s="1"/>
       <c r="L4" s="1">
         <v>2100</v>
       </c>
       <c r="M4" s="1">
         <v>700</v>
       </c>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B5" s="1">
         <v>330</v>
@@ -927,7 +885,7 @@
         <v>953</v>
       </c>
       <c r="E5" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F5" s="1">
         <v>600</v>
@@ -936,7 +894,7 @@
         <v>250</v>
       </c>
       <c r="H5" s="1">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="I5" s="1">
         <v>1000</v>
@@ -944,22 +902,17 @@
       <c r="J5" s="1">
         <v>350</v>
       </c>
-      <c r="K5" s="1">
-        <v>25</v>
-      </c>
+      <c r="K5" s="1"/>
       <c r="L5" s="1">
         <v>2200</v>
       </c>
       <c r="M5" s="1">
         <v>750</v>
       </c>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B6" s="1">
         <v>430</v>
@@ -969,7 +922,7 @@
         <v>946</v>
       </c>
       <c r="E6" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F6" s="1">
         <v>700</v>
@@ -978,7 +931,7 @@
         <v>250</v>
       </c>
       <c r="H6" s="1">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="I6" s="1">
         <v>1200</v>
@@ -986,22 +939,17 @@
       <c r="J6" s="1">
         <v>380</v>
       </c>
-      <c r="K6" s="1">
-        <v>28</v>
-      </c>
+      <c r="K6" s="1"/>
       <c r="L6" s="1">
         <v>2300</v>
       </c>
       <c r="M6" s="1">
         <v>800</v>
       </c>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B7" s="1">
         <v>518</v>
@@ -1011,7 +959,7 @@
         <v>925</v>
       </c>
       <c r="E7" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F7" s="1">
         <v>600</v>
@@ -1020,7 +968,7 @@
         <v>200</v>
       </c>
       <c r="H7" s="1">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="I7" s="1">
         <v>1200</v>
@@ -1028,22 +976,17 @@
       <c r="J7" s="1">
         <v>400</v>
       </c>
-      <c r="K7" s="1">
-        <v>19</v>
-      </c>
+      <c r="K7" s="1"/>
       <c r="L7" s="1">
         <v>2400</v>
       </c>
       <c r="M7" s="1">
         <v>850</v>
       </c>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B8" s="1">
         <v>577</v>
@@ -1053,7 +996,7 @@
         <v>912</v>
       </c>
       <c r="E8" s="1">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F8" s="1">
         <v>1000</v>
@@ -1061,9 +1004,7 @@
       <c r="G8" s="1">
         <v>300</v>
       </c>
-      <c r="H8" s="1">
-        <v>13</v>
-      </c>
+      <c r="H8" s="1"/>
       <c r="I8" s="1">
         <v>2000</v>
       </c>
@@ -1073,13 +1014,10 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B9" s="1">
         <v>650</v>
@@ -1089,7 +1027,7 @@
         <v>907</v>
       </c>
       <c r="E9" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F9" s="1">
         <v>900</v>
@@ -1097,9 +1035,7 @@
       <c r="G9" s="1">
         <v>310</v>
       </c>
-      <c r="H9" s="1">
-        <v>15</v>
-      </c>
+      <c r="H9" s="1"/>
       <c r="I9" s="1">
         <v>2100</v>
       </c>
@@ -1109,9 +1045,6 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1144,30 +1077,30 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1">
         <v>117</v>
@@ -1186,20 +1119,20 @@
         <v>18</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I2" s="1">
         <v>39</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B3" s="1">
         <v>363</v>
@@ -1224,13 +1157,13 @@
         <v>28</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K3" s="1">
         <v>47</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/FuzzyMsc/App_Data/Tmp/FileUploads/yapay-veriler-2.xlsx
+++ b/FuzzyMsc/App_Data/Tmp/FileUploads/yapay-veriler-2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="REZISTIVITE" sheetId="1" r:id="rId1"/>
@@ -473,8 +473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -563,7 +563,7 @@
         <v>70</v>
       </c>
       <c r="G3" s="1">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H3" s="1">
         <v>250</v>
@@ -717,7 +717,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
